--- a/TcRegister.xlsx
+++ b/TcRegister.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dungq\Desktop\Kiem Thu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8775" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenario" sheetId="3" r:id="rId2"/>
     <sheet name="FUNC TC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>SYSTEM TEST FOR</t>
   </si>
@@ -24,9 +29,6 @@
     <t>Project Code</t>
   </si>
   <si>
-    <t>NHOM 3</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -49,9 +51,6 @@
   </si>
   <si>
     <t>Estimate Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULE: </t>
   </si>
   <si>
     <t>TEST RESULT</t>
@@ -385,12 +384,27 @@
   </si>
   <si>
     <t>FUN_RFC_15</t>
+  </si>
+  <si>
+    <t>NHOM 6</t>
+  </si>
+  <si>
+    <t>MODULE: REGISTER</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Ngan</t>
+  </si>
+  <si>
+    <t>Dat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1452,7 +1466,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1475,84 +1489,29 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1569,39 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1690,71 +1616,166 @@
     <xf numFmtId="0" fontId="29" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1762,6 +1783,72 @@
     <xf numFmtId="0" fontId="24" fillId="20" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,7 +1858,7 @@
     <xf numFmtId="0" fontId="24" fillId="20" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,78 +1876,8 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1914,6 +1931,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1961,7 +1981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1994,9 +2014,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2029,6 +2066,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2207,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,24 +2276,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2254,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2263,10 +2317,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2281,62 +2335,72 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="70"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="70"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="77"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="142">
+        <v>43162</v>
+      </c>
+      <c r="C11" s="70"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="71">
+        <v>2</v>
+      </c>
+      <c r="C12" s="71"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2378,519 +2442,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="B4" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="E4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37" t="s">
+      <c r="F4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="G4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="37" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="103"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>6</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>7</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>8</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="96"/>
+      <c r="D21" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <v>1</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B22" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="81"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="42">
+        <v>3</v>
+      </c>
+      <c r="B23" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="29" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="81"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>4</v>
+      </c>
+      <c r="B24" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="85"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="85"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+      <c r="C24" s="85"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="81"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="85"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="B25" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="81"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="87"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="B26" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
         <v>7</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="86"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
+      <c r="B27" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="81"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
         <v>8</v>
       </c>
-      <c r="B16" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="86"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <v>1</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="95" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <v>2</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="B28" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="81"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>9</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="81"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>10</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="81"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>11</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="81"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>12</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="81"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="68">
+        <v>13</v>
+      </c>
+      <c r="B33" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="96"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
-        <v>3</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="96"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="73">
-        <v>4</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="96"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
-        <v>5</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="96"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="73">
-        <v>6</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="96"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="73">
-        <v>7</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="96"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="73">
-        <v>8</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="96"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="73">
-        <v>9</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="96"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="73">
-        <v>10</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="96"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
-        <v>11</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="96"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="73">
-        <v>12</v>
-      </c>
-      <c r="B32" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="96"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="135">
-        <v>13</v>
-      </c>
-      <c r="B33" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="96"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="81"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="96"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="81"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="96"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="96"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="96"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="81"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="96"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="81"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="96"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="81"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="G21:G33"/>
     <mergeCell ref="D21:D33"/>
@@ -2907,23 +2988,6 @@
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="G9 G21 G35">
@@ -2939,7 +3003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2955,968 +3019,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="E1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="F1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="57">
+      <c r="A2" s="25"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="27">
         <f>COUNTIF(G1:G310,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="27">
         <f>COUNTIF(G1:G310,"fail")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="27">
         <f>COUNTIF(G1:G310,"Untested")</f>
         <v>14</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="27">
         <f>SUM(C2,D2,E2)</f>
         <v>14</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-    </row>
-    <row r="4" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="D4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="F4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="G4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="H4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="58" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="133" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="B6" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="D6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="129"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="134"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="134"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="134"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="134"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="135"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="129"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="129"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="126"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="126"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="129"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="126"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="126"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="109"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="110"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="109"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="110"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="C36" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="105"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="105"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="105"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="68"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="68"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="68"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="119" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="109"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="110"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="110"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="109"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="110"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="68"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="68"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="68"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="119" t="s">
+      <c r="C45" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="109"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="110"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="109"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="110"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="68"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="68"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="68"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="68"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="68"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="68"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="68"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="68"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="68"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="121" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="68"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="68"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="68"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="68"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="68"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="68"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="121" t="s">
+      <c r="C51" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="68"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="68"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="68"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="124" t="s">
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="109"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="110"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="68"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="106"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="68"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="68"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="52"/>
+      <c r="B54" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="129"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="52"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="129"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="52"/>
+      <c r="A56" s="126"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="129"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="52"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="52"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="129"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="52"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="129"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="52"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="129"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="52"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="129"/>
     </row>
     <row r="62" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="52"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="129"/>
     </row>
     <row r="63" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="54" t="s">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-    </row>
-    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="54" t="s">
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-    </row>
-    <row r="67" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-    </row>
-    <row r="68" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="H54:H56"/>
     <mergeCell ref="A57:A59"/>
@@ -3928,6 +3923,75 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
